--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,78 +40,75 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>destroying</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -121,49 +118,49 @@
     <t>[UNK]</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>good</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
@@ -172,46 +169,43 @@
     <t>many</t>
   </si>
   <si>
-    <t>new</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>…</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -580,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -741,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8939393939393939</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -841,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8461538461538461</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.7719298245614035</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8125</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.6842105263157895</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.6166666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.725</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.4545454545454545</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.631578947368421</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -1209,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.4166666666666667</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.625</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>0.375</v>
@@ -1291,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.3333333333333333</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.2522768670309654</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L17">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>821</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5769230769230769</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.2439024390243902</v>
+        <v>0.2550091074681239</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>818</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.572463768115942</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C19">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.2203389830508475</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1483,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5652173913043478</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.180327868852459</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5319148936170213</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1559,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.1684210526315789</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5294117647058824</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1609,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.1666666666666667</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,7 +1635,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -1659,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.1538461538461539</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1683,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,13 +1685,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4871794871794872</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1709,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.1408450704225352</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1733,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1741,13 +1735,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3928571428571428</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1759,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.1232876712328767</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1783,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>64</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1812,16 +1806,16 @@
         <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.04814814814814815</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1833,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>514</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1841,13 +1835,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3571428571428572</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1859,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.0466867469879518</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1883,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>633</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1891,37 +1885,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1538461538461539</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.04398826979472141</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1933,45 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.03678929765886288</v>
-      </c>
-      <c r="C29">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>288</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.0353356890459364</v>
+        <v>0.03162650602409638</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1983,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>273</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.02597402597402598</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2009,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>600</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.02419354838709677</v>
+        <v>0.02304737516005122</v>
       </c>
       <c r="L31">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2035,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>1694</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.02304737516005122</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2061,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>763</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
